--- a/data/pagos/temp/MARLENE LOMAS.xlsx
+++ b/data/pagos/temp/MARLENE LOMAS.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVELUIS\Desktop\nomina_neltex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVELUIS\Desktop\PERSONAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="julio" sheetId="1" r:id="rId1"/>
-    <sheet name="agosto" sheetId="2" r:id="rId2"/>
+    <sheet name="agosto" sheetId="1" r:id="rId1"/>
+    <sheet name="l" sheetId="2" r:id="rId2"/>
     <sheet name="septiembre" sheetId="3" r:id="rId3"/>
     <sheet name="octubre" sheetId="4" r:id="rId4"/>
     <sheet name="noviembre" sheetId="5" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
   <si>
     <t>REPORTE DE INGRESO Y SALIDA EMPLEADOS NELTEX</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Marlene Lomas</t>
+  </si>
+  <si>
+    <t>horas_extras</t>
   </si>
 </sst>
 </file>
@@ -125,9 +128,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,15 +422,15 @@
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -447,10 +450,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -458,335 +464,278 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>42917</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+        <v>42948</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
-        <v>42919</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
+        <v>42949</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
-        <v>42920</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
+        <v>42950</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
-        <v>42921</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
+        <v>42951</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
-        <v>42922</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
+        <v>42952</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
-        <v>42923</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
+        <v>42954</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
-        <v>42924</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
+        <v>42955</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
-        <v>42926</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
+        <v>42956</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
-        <v>42927</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
+        <v>42957</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
-        <v>42928</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+        <v>42958</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
-        <v>42929</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
+        <v>42959</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
-        <v>42930</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+        <v>42961</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
-        <v>42931</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
+        <v>42962</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
-        <v>42933</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
+        <v>42963</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
-        <v>42934</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
+        <v>42964</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
-        <v>42935</v>
+        <v>42965</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
-        <v>42936</v>
+        <v>42966</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
-        <v>42937</v>
+        <v>42968</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
-        <v>42938</v>
+        <v>42969</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
-        <v>42940</v>
+        <v>42970</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
-        <v>42941</v>
+        <v>42971</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
-        <v>42942</v>
+        <v>42972</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="4">
-        <v>42943</v>
+        <v>42973</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="4">
-        <v>42944</v>
+        <v>42975</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="4">
-        <v>42945</v>
+        <v>42976</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="4">
-        <v>42947</v>
+        <v>42977</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>42978</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
   </sheetData>
@@ -798,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,89 +1835,89 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
